--- a/biology/Zoologie/Insectes_butineurs/Insectes_butineurs.xlsx
+++ b/biology/Zoologie/Insectes_butineurs/Insectes_butineurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insectes butineurs jouent le rôle de vecteurs entre les fleurs et permettent ainsi de les féconder en transportant le pollen de l'une à l'autre, (voir pollinisation). S'ensuit fructification et, par extension, dissémination des fruits et de graines. 80 % des plantes sont pollinisées par les insectes.
 </t>
@@ -513,18 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abeilles, bourdons et apparentés (Hymenoptera)
-Les abeilles domestiques et sauvages, Anthophila en grec, sont des insectes vivant en colonies et produisant la cire et le miel dont nous disposons. Cet insecte possède un corps rayé jaune et noir et 6 pattes. Les abeilles vivent dans des ruches ou dans des cavités, trouvées dans la nature[1].
-Les bourdons sont très répandus en Europe. Ils installent souvent leur nid dans des milieux ouverts, comme dans les forêts claires et vivent également en colonies. Seules les femelles, fécondées en automne, possèdent un dard qui, contrairement aux abeilles, n'est pas dentelé et peut se retirer sans déchirer l'abdomen du bourdon après la piqûre[2].
+          <t>Abeilles, bourdons et apparentés (Hymenoptera)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les abeilles domestiques et sauvages, Anthophila en grec, sont des insectes vivant en colonies et produisant la cire et le miel dont nous disposons. Cet insecte possède un corps rayé jaune et noir et 6 pattes. Les abeilles vivent dans des ruches ou dans des cavités, trouvées dans la nature.
+Les bourdons sont très répandus en Europe. Ils installent souvent leur nid dans des milieux ouverts, comme dans les forêts claires et vivent également en colonies. Seules les femelles, fécondées en automne, possèdent un dard qui, contrairement aux abeilles, n'est pas dentelé et peut se retirer sans déchirer l'abdomen du bourdon après la piqûre.
 Les guêpes ne produisent pas de miel et vivent en colonies. Lorsqu'elles piquent, contrairement aux abeilles, elles gardent leur dard et peuvent recommencer à piquer.
-Le frelon, Vespa en latin, appartenant à l'ordre des hyménoptères, est le cousin de la guêpe, ce qui explique son apparence similaire, mais sa taille est toutefois plus importante. On distingue essentiellement deux types de frelons : le frelon européen et le frelon asiatique. Il construit généralement son nid en hauteur. Il apprécie les troncs d’arbres creux et les buissons mais aussi les greniers, les garages et autres espaces clos. Il arrive également que le frelon construise son nid dans la terre. On peut ainsi trouver son habitat dans les espaces verts[3].
-Lépidoptères (Lepidoptera)
-Les lépidoptères sont un ordre à part entière. En effet, tous les insectes appartenant à l'ordre des lépidoptères sont des insectes butineurs, notamment les papillons.
-Ils sont caractérisés par leur forme adulte, communément appelée papillon. La larve est appelée chenille et la nymphe chrysalide[4].
-Diptères (Diptera)
-Les diptères sont aussi un ordre à part entière de la classe des insectes, comportant essentiellement des mouches. Il s'agit de l'un des ordres dominants en matière de nombre d'espèces. On retrouve plus de 150 000 espèces de mouches décrites. Cet ordre comprend aussi des syrphes, moustiques, taons et moucherons[5].
-Coléoptères (Coleoptera)
-Les fleurs cantharophiles sont pollinisées par les coléoptères floricoles, notamment les Cantharidés et les Mordellidés qui se nourrissent du pollen facilement accessible). Ces fleurs peuvent inclure des pièges pour garder le coléoptère plus longtemps. Les ovaires des plantes sont généralement infères pour être protégés des pièces buccales de type mâcheur de leurs pollinisateurs[6].
+Le frelon, Vespa en latin, appartenant à l'ordre des hyménoptères, est le cousin de la guêpe, ce qui explique son apparence similaire, mais sa taille est toutefois plus importante. On distingue essentiellement deux types de frelons : le frelon européen et le frelon asiatique. Il construit généralement son nid en hauteur. Il apprécie les troncs d’arbres creux et les buissons mais aussi les greniers, les garages et autres espaces clos. Il arrive également que le frelon construise son nid dans la terre. On peut ainsi trouver son habitat dans les espaces verts.
 </t>
         </is>
       </c>
@@ -550,12 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Coévolution</t>
+          <t>Types d'insectes butineurs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La grande majorité des plantes à fleurs sont dépendantes des insectes pour leur reproduction sexuée. Si le vent peut se charger de transporter le pollen chez certaines d'entre elles (ce qui s'appelle pollinisation anémophile), chez les autres, les courants d'air ne suffisent pas (pollen trop lourd, trop collant, peu abondant…) et il faut que ce soient des insectes (ce qui s'appelle une pollinisation entomophile) qui, en butinant une fleur après l'autre, dispersent le pollen et permettent la fécondation d'une fleur par le pollen d'une autre fleur de la même espèce, située à une distance plus ou moins grande[7].
+          <t>Lépidoptères (Lepidoptera)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lépidoptères sont un ordre à part entière. En effet, tous les insectes appartenant à l'ordre des lépidoptères sont des insectes butineurs, notamment les papillons.
+Ils sont caractérisés par leur forme adulte, communément appelée papillon. La larve est appelée chenille et la nymphe chrysalide.
 </t>
         </is>
       </c>
@@ -581,10 +598,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Types d'insectes butineurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diptères (Diptera)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diptères sont aussi un ordre à part entière de la classe des insectes, comportant essentiellement des mouches. Il s'agit de l'un des ordres dominants en matière de nombre d'espèces. On retrouve plus de 150 000 espèces de mouches décrites. Cet ordre comprend aussi des syrphes, moustiques, taons et moucherons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types d'insectes butineurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coléoptères (Coleoptera)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs cantharophiles sont pollinisées par les coléoptères floricoles, notamment les Cantharidés et les Mordellidés qui se nourrissent du pollen facilement accessible). Ces fleurs peuvent inclure des pièges pour garder le coléoptère plus longtemps. Les ovaires des plantes sont généralement infères pour être protégés des pièces buccales de type mâcheur de leurs pollinisateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Coévolution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande majorité des plantes à fleurs sont dépendantes des insectes pour leur reproduction sexuée. Si le vent peut se charger de transporter le pollen chez certaines d'entre elles (ce qui s'appelle pollinisation anémophile), chez les autres, les courants d'air ne suffisent pas (pollen trop lourd, trop collant, peu abondant…) et il faut que ce soient des insectes (ce qui s'appelle une pollinisation entomophile) qui, en butinant une fleur après l'autre, dispersent le pollen et permettent la fécondation d'une fleur par le pollen d'une autre fleur de la même espèce, située à une distance plus ou moins grande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insectes_butineurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Services écosystémiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
